--- a/管理・設計ドキュメント/02_基本設計/12x.画面設計/122.画面設計（scr-mbr-06-03）会員向け商品詳細ページ.xlsx
+++ b/管理・設計ドキュメント/02_基本設計/12x.画面設計/122.画面設計（scr-mbr-06-03）会員向け商品詳細ページ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\03.夢の宅配便\02_基本設計\12x.画面設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\夢の宅配便\02_基本設計\12x.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FD7F07-26E3-469D-82B9-4D21CC67178B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A17838-F09F-441E-A6AF-D65CB642A0E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="675" windowWidth="24375" windowHeight="14925" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1275" windowWidth="24375" windowHeight="14925" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="64" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="113">
   <si>
     <t>改訂履歴</t>
   </si>
@@ -290,9 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HOME</t>
-  </si>
-  <si>
     <t>ギャンブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -444,31 +441,6 @@
     <t>会員向け商品詳細ページ（scr-mbr-06-03）へ遷移する。</t>
     <rPh sb="27" eb="29">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遷移先の画面では、上記以外の商品を表示させる。</t>
-    <rPh sb="0" eb="2">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1070,19 +1042,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※フェーズ２以降で改修予定</t>
-    <rPh sb="6" eb="8">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイシュウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>戻る</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
@@ -1138,6 +1097,78 @@
     <rPh sb="66" eb="67">
       <t>オコナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜カテゴリー＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンペーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドバー　カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグマスタのタグLV1（カテゴリー）の一覧を表示する。</t>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定カテゴリ　名称</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーの名称を表示する。</t>
+    <rPh sb="6" eb="8">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグマスタ
+（tag_masters）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「〇〇〇キャンペーン」、「おすすめ！」などのグループ分けしてTOPページに表示するのに使用する。</t>
+    <rPh sb="26" eb="27">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドバー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1148,7 +1179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1250,6 +1281,13 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1521,7 +1559,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1675,33 +1713,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1753,6 +1764,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1803,7 +1823,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s2516"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s2517"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1992,126 +2012,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4FDCB60-50D7-40BE-98A1-2A60169870D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9715499" y="2705100"/>
-          <a:ext cx="1495425" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -91667"/>
-            <a:gd name="adj2" fmla="val 24936"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>メニューバー</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　それぞれボタンとなる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2174,9 +2083,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>156861</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1819275" cy="821039"/>
@@ -2234,15 +2143,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2258,8 +2167,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953499" y="3778250"/>
-          <a:ext cx="1368425" cy="1441450"/>
+          <a:off x="10677524" y="3917950"/>
+          <a:ext cx="1495425" cy="1498600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2345,9 +2254,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1819275" cy="821039"/>
@@ -2405,9 +2314,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1819275" cy="482600"/>
@@ -2466,15 +2375,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2586,7 +2495,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s5502"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s5503"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2735,7 +2644,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s10522"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s10523"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3732,12 +3641,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A9:BQ62"/>
+  <dimension ref="A9:BQ58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C43" sqref="C43"/>
-      <selection pane="bottomLeft" activeCell="BH12" sqref="BH12"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -4235,50 +4144,57 @@
     </row>
     <row r="17" spans="1:69">
       <c r="A17" s="27"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="67"/>
-      <c r="AJ17" s="68"/>
-      <c r="AK17" s="69"/>
-      <c r="AL17" s="69"/>
-      <c r="AM17" s="69"/>
-      <c r="AN17" s="69"/>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="69"/>
-      <c r="AS17" s="70"/>
+      <c r="B17" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
+      <c r="AK17" s="59"/>
+      <c r="AL17" s="59"/>
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="59"/>
+      <c r="AO17" s="59"/>
+      <c r="AP17" s="59"/>
+      <c r="AQ17" s="59"/>
+      <c r="AR17" s="59"/>
+      <c r="AS17" s="59"/>
+      <c r="AT17" s="59"/>
+      <c r="AU17" s="59"/>
+      <c r="AV17" s="59"/>
+      <c r="AW17" s="59"/>
+      <c r="AX17" s="59"/>
+      <c r="AY17" s="60"/>
       <c r="AZ17" s="28"/>
       <c r="BA17" s="28"/>
       <c r="BB17" s="28"/>
@@ -4287,61 +4203,69 @@
       <c r="BE17" s="28"/>
       <c r="BF17" s="28"/>
       <c r="BG17" s="29"/>
+      <c r="BK17" s="31"/>
+      <c r="BL17" s="31"/>
+      <c r="BM17" s="28"/>
+      <c r="BN17" s="28"/>
+      <c r="BO17" s="28"/>
+      <c r="BP17" s="28"/>
+      <c r="BQ17" s="28"/>
     </row>
     <row r="18" spans="1:69">
       <c r="A18" s="27"/>
-      <c r="B18" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="73"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="73"/>
-      <c r="AI18" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="73"/>
-      <c r="AO18" s="73"/>
-      <c r="AP18" s="73"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="74"/>
+      <c r="B18" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="H18" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="62"/>
+      <c r="AK18" s="62"/>
+      <c r="AL18" s="62"/>
+      <c r="AM18" s="62"/>
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="62"/>
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="62"/>
+      <c r="AS18" s="62"/>
+      <c r="AT18" s="62"/>
+      <c r="AU18" s="62"/>
+      <c r="AV18" s="62"/>
+      <c r="AW18" s="62"/>
+      <c r="AX18" s="62"/>
+      <c r="AY18" s="63"/>
       <c r="AZ18" s="28"/>
       <c r="BA18" s="28"/>
       <c r="BB18" s="28"/>
@@ -4350,53 +4274,67 @@
       <c r="BE18" s="28"/>
       <c r="BF18" s="28"/>
       <c r="BG18" s="29"/>
+      <c r="BK18" s="31"/>
+      <c r="BL18" s="31"/>
+      <c r="BM18" s="28"/>
+      <c r="BN18" s="28"/>
+      <c r="BO18" s="28"/>
+      <c r="BP18" s="28"/>
+      <c r="BQ18" s="28"/>
     </row>
     <row r="19" spans="1:69">
       <c r="A19" s="27"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="75"/>
-      <c r="Y19" s="76"/>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="76"/>
-      <c r="AE19" s="76"/>
-      <c r="AF19" s="76"/>
-      <c r="AG19" s="76"/>
-      <c r="AH19" s="76"/>
-      <c r="AI19" s="75"/>
-      <c r="AJ19" s="76"/>
-      <c r="AK19" s="76"/>
-      <c r="AL19" s="76"/>
-      <c r="AM19" s="76"/>
-      <c r="AN19" s="76"/>
-      <c r="AO19" s="76"/>
-      <c r="AP19" s="76"/>
-      <c r="AQ19" s="76"/>
-      <c r="AR19" s="76"/>
-      <c r="AS19" s="77"/>
+      <c r="B19" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="66"/>
       <c r="AZ19" s="28"/>
       <c r="BA19" s="28"/>
       <c r="BB19" s="28"/>
@@ -4415,13 +4353,14 @@
     </row>
     <row r="20" spans="1:69">
       <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="B20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
@@ -4464,7 +4403,7 @@
       <c r="AV20" s="31"/>
       <c r="AW20" s="31"/>
       <c r="AX20" s="31"/>
-      <c r="AY20" s="28"/>
+      <c r="AY20" s="31"/>
       <c r="AZ20" s="28"/>
       <c r="BA20" s="28"/>
       <c r="BB20" s="28"/>
@@ -4483,56 +4422,59 @@
     </row>
     <row r="21" spans="1:69">
       <c r="A21" s="27"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="60"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="31"/>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="31"/>
-      <c r="AY21" s="28"/>
+      <c r="B21" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="H21" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="78"/>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="78"/>
+      <c r="AO21" s="78"/>
+      <c r="AP21" s="78"/>
+      <c r="AQ21" s="78"/>
+      <c r="AR21" s="78"/>
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="78"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="78"/>
+      <c r="AW21" s="78"/>
+      <c r="AX21" s="78"/>
+      <c r="AY21" s="79"/>
       <c r="AZ21" s="28"/>
       <c r="BA21" s="28"/>
       <c r="BB21" s="28"/>
@@ -4551,58 +4493,50 @@
     </row>
     <row r="22" spans="1:69">
       <c r="A22" s="27"/>
-      <c r="B22" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="62"/>
-      <c r="AK22" s="62"/>
-      <c r="AL22" s="62"/>
-      <c r="AM22" s="62"/>
-      <c r="AN22" s="62"/>
-      <c r="AO22" s="62"/>
-      <c r="AP22" s="62"/>
-      <c r="AQ22" s="62"/>
-      <c r="AR22" s="62"/>
-      <c r="AS22" s="63"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
+      <c r="AO22" s="31"/>
+      <c r="AP22" s="31"/>
+      <c r="AQ22" s="31"/>
+      <c r="AR22" s="31"/>
+      <c r="AS22" s="31"/>
       <c r="AT22" s="31"/>
       <c r="AU22" s="31"/>
       <c r="AV22" s="31"/>
       <c r="AW22" s="31"/>
       <c r="AX22" s="31"/>
-      <c r="AY22" s="28"/>
+      <c r="AY22" s="31"/>
       <c r="AZ22" s="28"/>
       <c r="BA22" s="28"/>
       <c r="BB22" s="28"/>
@@ -4621,56 +4555,52 @@
     </row>
     <row r="23" spans="1:69">
       <c r="A23" s="27"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
-      <c r="AL23" s="65"/>
-      <c r="AM23" s="65"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="65"/>
-      <c r="AQ23" s="65"/>
-      <c r="AR23" s="65"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="31"/>
-      <c r="AU23" s="31"/>
-      <c r="AV23" s="31"/>
-      <c r="AW23" s="31"/>
-      <c r="AX23" s="31"/>
-      <c r="AY23" s="28"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="46"/>
+      <c r="AN23" s="46"/>
+      <c r="AO23" s="46"/>
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="46"/>
+      <c r="AR23" s="46"/>
+      <c r="AS23" s="46"/>
+      <c r="AT23" s="46"/>
+      <c r="AU23" s="46"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="47"/>
       <c r="AZ23" s="28"/>
       <c r="BA23" s="28"/>
       <c r="BB23" s="28"/>
@@ -4689,56 +4619,50 @@
     </row>
     <row r="24" spans="1:69">
       <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="57"/>
       <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="31"/>
-      <c r="AO24" s="31"/>
-      <c r="AP24" s="31"/>
-      <c r="AQ24" s="31"/>
-      <c r="AR24" s="31"/>
-      <c r="AS24" s="31"/>
-      <c r="AT24" s="31"/>
-      <c r="AU24" s="31"/>
-      <c r="AV24" s="31"/>
-      <c r="AW24" s="31"/>
-      <c r="AX24" s="31"/>
-      <c r="AY24" s="28"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="48"/>
+      <c r="AK24" s="48"/>
+      <c r="AL24" s="48"/>
+      <c r="AM24" s="48"/>
+      <c r="AN24" s="48"/>
+      <c r="AO24" s="48"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="48"/>
+      <c r="AR24" s="48"/>
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="48"/>
+      <c r="AV24" s="48"/>
+      <c r="AW24" s="48"/>
+      <c r="AX24" s="48"/>
+      <c r="AY24" s="49"/>
       <c r="AZ24" s="28"/>
       <c r="BA24" s="28"/>
       <c r="BB24" s="28"/>
@@ -4757,58 +4681,50 @@
     </row>
     <row r="25" spans="1:69">
       <c r="A25" s="27"/>
-      <c r="B25" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="89"/>
-      <c r="AE25" s="89"/>
-      <c r="AF25" s="89"/>
-      <c r="AG25" s="89"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="89"/>
-      <c r="AJ25" s="89"/>
-      <c r="AK25" s="89"/>
-      <c r="AL25" s="89"/>
-      <c r="AM25" s="89"/>
-      <c r="AN25" s="89"/>
-      <c r="AO25" s="89"/>
-      <c r="AP25" s="89"/>
-      <c r="AQ25" s="89"/>
-      <c r="AR25" s="89"/>
-      <c r="AS25" s="90"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
-      <c r="AV25" s="31"/>
-      <c r="AW25" s="31"/>
-      <c r="AX25" s="31"/>
-      <c r="AY25" s="28"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="50"/>
+      <c r="AK25" s="50"/>
+      <c r="AL25" s="50"/>
+      <c r="AM25" s="50"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="50"/>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="50"/>
+      <c r="AR25" s="50"/>
+      <c r="AS25" s="50"/>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="50"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="51"/>
       <c r="AZ25" s="28"/>
       <c r="BA25" s="28"/>
       <c r="BB25" s="28"/>
@@ -4817,38 +4733,25 @@
       <c r="BE25" s="28"/>
       <c r="BF25" s="28"/>
       <c r="BG25" s="29"/>
-      <c r="BK25" s="31"/>
-      <c r="BL25" s="31"/>
-      <c r="BM25" s="28"/>
-      <c r="BN25" s="28"/>
-      <c r="BO25" s="28"/>
-      <c r="BP25" s="28"/>
-      <c r="BQ25" s="28"/>
     </row>
     <row r="26" spans="1:69">
       <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="57"/>
       <c r="X26" s="31"/>
       <c r="Y26" s="31"/>
       <c r="Z26" s="31"/>
@@ -4876,7 +4779,7 @@
       <c r="AV26" s="31"/>
       <c r="AW26" s="31"/>
       <c r="AX26" s="31"/>
-      <c r="AY26" s="28"/>
+      <c r="AY26" s="31"/>
       <c r="AZ26" s="28"/>
       <c r="BA26" s="28"/>
       <c r="BB26" s="28"/>
@@ -4885,42 +4788,29 @@
       <c r="BE26" s="28"/>
       <c r="BF26" s="28"/>
       <c r="BG26" s="29"/>
-      <c r="BK26" s="31"/>
-      <c r="BL26" s="31"/>
-      <c r="BM26" s="28"/>
-      <c r="BN26" s="28"/>
-      <c r="BO26" s="28"/>
-      <c r="BP26" s="28"/>
-      <c r="BQ26" s="28"/>
     </row>
     <row r="27" spans="1:69">
       <c r="A27" s="27"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="74" t="s">
+        <v>73</v>
+      </c>
       <c r="Z27" s="46"/>
       <c r="AA27" s="46"/>
       <c r="AB27" s="46"/>
@@ -4940,13 +4830,13 @@
       <c r="AP27" s="46"/>
       <c r="AQ27" s="46"/>
       <c r="AR27" s="46"/>
-      <c r="AS27" s="47"/>
-      <c r="AT27" s="31"/>
-      <c r="AU27" s="31"/>
-      <c r="AV27" s="31"/>
-      <c r="AW27" s="31"/>
-      <c r="AX27" s="28"/>
-      <c r="AY27" s="28"/>
+      <c r="AS27" s="46"/>
+      <c r="AT27" s="46"/>
+      <c r="AU27" s="46"/>
+      <c r="AV27" s="46"/>
+      <c r="AW27" s="46"/>
+      <c r="AX27" s="46"/>
+      <c r="AY27" s="47"/>
       <c r="AZ27" s="28"/>
       <c r="BA27" s="28"/>
       <c r="BB27" s="28"/>
@@ -4955,40 +4845,27 @@
       <c r="BE27" s="28"/>
       <c r="BF27" s="28"/>
       <c r="BG27" s="29"/>
-      <c r="BK27" s="31"/>
-      <c r="BL27" s="31"/>
-      <c r="BM27" s="28"/>
-      <c r="BN27" s="28"/>
-      <c r="BO27" s="28"/>
-      <c r="BP27" s="28"/>
-      <c r="BQ27" s="28"/>
     </row>
     <row r="28" spans="1:69">
       <c r="A28" s="27"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
       <c r="P28" s="56"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="76"/>
       <c r="Z28" s="48"/>
       <c r="AA28" s="48"/>
       <c r="AB28" s="48"/>
@@ -5008,13 +4885,13 @@
       <c r="AP28" s="48"/>
       <c r="AQ28" s="48"/>
       <c r="AR28" s="48"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="31"/>
-      <c r="AU28" s="31"/>
-      <c r="AV28" s="31"/>
-      <c r="AW28" s="31"/>
-      <c r="AX28" s="28"/>
-      <c r="AY28" s="28"/>
+      <c r="AS28" s="48"/>
+      <c r="AT28" s="48"/>
+      <c r="AU28" s="48"/>
+      <c r="AV28" s="48"/>
+      <c r="AW28" s="48"/>
+      <c r="AX28" s="48"/>
+      <c r="AY28" s="49"/>
       <c r="AZ28" s="28"/>
       <c r="BA28" s="28"/>
       <c r="BB28" s="28"/>
@@ -5023,66 +4900,53 @@
       <c r="BE28" s="28"/>
       <c r="BF28" s="28"/>
       <c r="BG28" s="29"/>
-      <c r="BK28" s="31"/>
-      <c r="BL28" s="31"/>
-      <c r="BM28" s="28"/>
-      <c r="BN28" s="28"/>
-      <c r="BO28" s="28"/>
-      <c r="BP28" s="28"/>
-      <c r="BQ28" s="28"/>
     </row>
     <row r="29" spans="1:69">
       <c r="A29" s="27"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
       <c r="P29" s="56"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="50"/>
-      <c r="AI29" s="50"/>
-      <c r="AJ29" s="50"/>
-      <c r="AK29" s="50"/>
-      <c r="AL29" s="50"/>
-      <c r="AM29" s="50"/>
-      <c r="AN29" s="50"/>
-      <c r="AO29" s="50"/>
-      <c r="AP29" s="50"/>
-      <c r="AQ29" s="50"/>
-      <c r="AR29" s="50"/>
-      <c r="AS29" s="51"/>
-      <c r="AT29" s="31"/>
-      <c r="AU29" s="31"/>
-      <c r="AV29" s="31"/>
-      <c r="AW29" s="31"/>
-      <c r="AX29" s="28"/>
-      <c r="AY29" s="28"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
+      <c r="AJ29" s="48"/>
+      <c r="AK29" s="48"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="48"/>
+      <c r="AO29" s="48"/>
+      <c r="AP29" s="48"/>
+      <c r="AQ29" s="48"/>
+      <c r="AR29" s="48"/>
+      <c r="AS29" s="48"/>
+      <c r="AT29" s="48"/>
+      <c r="AU29" s="48"/>
+      <c r="AV29" s="48"/>
+      <c r="AW29" s="48"/>
+      <c r="AX29" s="48"/>
+      <c r="AY29" s="49"/>
       <c r="AZ29" s="28"/>
       <c r="BA29" s="28"/>
       <c r="BB29" s="28"/>
@@ -5094,56 +4958,52 @@
     </row>
     <row r="30" spans="1:69">
       <c r="A30" s="27"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
+      <c r="H30" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
       <c r="P30" s="56"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="57"/>
       <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="31"/>
-      <c r="AM30" s="31"/>
-      <c r="AN30" s="31"/>
-      <c r="AO30" s="31"/>
-      <c r="AP30" s="31"/>
-      <c r="AQ30" s="31"/>
-      <c r="AR30" s="31"/>
-      <c r="AS30" s="31"/>
-      <c r="AT30" s="31"/>
-      <c r="AU30" s="31"/>
-      <c r="AV30" s="31"/>
-      <c r="AW30" s="31"/>
-      <c r="AX30" s="28"/>
-      <c r="AY30" s="28"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="48"/>
+      <c r="AE30" s="48"/>
+      <c r="AF30" s="48"/>
+      <c r="AG30" s="48"/>
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="48"/>
+      <c r="AJ30" s="48"/>
+      <c r="AK30" s="48"/>
+      <c r="AL30" s="48"/>
+      <c r="AM30" s="48"/>
+      <c r="AN30" s="48"/>
+      <c r="AO30" s="48"/>
+      <c r="AP30" s="48"/>
+      <c r="AQ30" s="48"/>
+      <c r="AR30" s="48"/>
+      <c r="AS30" s="48"/>
+      <c r="AT30" s="48"/>
+      <c r="AU30" s="48"/>
+      <c r="AV30" s="48"/>
+      <c r="AW30" s="48"/>
+      <c r="AX30" s="48"/>
+      <c r="AY30" s="49"/>
       <c r="AZ30" s="28"/>
       <c r="BA30" s="28"/>
       <c r="BB30" s="28"/>
@@ -5155,58 +5015,50 @@
     </row>
     <row r="31" spans="1:69">
       <c r="A31" s="27"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
       <c r="P31" s="56"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="46"/>
-      <c r="AF31" s="46"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="46"/>
-      <c r="AI31" s="46"/>
-      <c r="AJ31" s="46"/>
-      <c r="AK31" s="46"/>
-      <c r="AL31" s="46"/>
-      <c r="AM31" s="46"/>
-      <c r="AN31" s="46"/>
-      <c r="AO31" s="46"/>
-      <c r="AP31" s="46"/>
-      <c r="AQ31" s="46"/>
-      <c r="AR31" s="46"/>
-      <c r="AS31" s="47"/>
-      <c r="AT31" s="31"/>
-      <c r="AU31" s="31"/>
-      <c r="AV31" s="31"/>
-      <c r="AW31" s="31"/>
-      <c r="AX31" s="28"/>
-      <c r="AY31" s="28"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="76"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="48"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="48"/>
+      <c r="AF31" s="48"/>
+      <c r="AG31" s="48"/>
+      <c r="AH31" s="48"/>
+      <c r="AI31" s="48"/>
+      <c r="AJ31" s="48"/>
+      <c r="AK31" s="48"/>
+      <c r="AL31" s="48"/>
+      <c r="AM31" s="48"/>
+      <c r="AN31" s="48"/>
+      <c r="AO31" s="48"/>
+      <c r="AP31" s="48"/>
+      <c r="AQ31" s="48"/>
+      <c r="AR31" s="48"/>
+      <c r="AS31" s="48"/>
+      <c r="AT31" s="48"/>
+      <c r="AU31" s="48"/>
+      <c r="AV31" s="48"/>
+      <c r="AW31" s="48"/>
+      <c r="AX31" s="48"/>
+      <c r="AY31" s="49"/>
       <c r="AZ31" s="28"/>
       <c r="BA31" s="28"/>
       <c r="BB31" s="28"/>
@@ -5218,30 +5070,24 @@
     </row>
     <row r="32" spans="1:69">
       <c r="A32" s="27"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
       <c r="P32" s="56"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="76"/>
       <c r="Z32" s="48"/>
       <c r="AA32" s="48"/>
       <c r="AB32" s="48"/>
@@ -5261,13 +5107,13 @@
       <c r="AP32" s="48"/>
       <c r="AQ32" s="48"/>
       <c r="AR32" s="48"/>
-      <c r="AS32" s="49"/>
-      <c r="AT32" s="31"/>
-      <c r="AU32" s="31"/>
-      <c r="AV32" s="31"/>
-      <c r="AW32" s="31"/>
-      <c r="AX32" s="28"/>
-      <c r="AY32" s="28"/>
+      <c r="AS32" s="48"/>
+      <c r="AT32" s="48"/>
+      <c r="AU32" s="48"/>
+      <c r="AV32" s="48"/>
+      <c r="AW32" s="48"/>
+      <c r="AX32" s="48"/>
+      <c r="AY32" s="49"/>
       <c r="AZ32" s="28"/>
       <c r="BA32" s="28"/>
       <c r="BB32" s="28"/>
@@ -5279,56 +5125,50 @@
     </row>
     <row r="33" spans="1:59">
       <c r="A33" s="27"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
       <c r="P33" s="56"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="48"/>
-      <c r="AK33" s="48"/>
-      <c r="AL33" s="48"/>
-      <c r="AM33" s="48"/>
-      <c r="AN33" s="48"/>
-      <c r="AO33" s="48"/>
-      <c r="AP33" s="48"/>
-      <c r="AQ33" s="48"/>
-      <c r="AR33" s="48"/>
-      <c r="AS33" s="49"/>
-      <c r="AT33" s="31"/>
-      <c r="AU33" s="31"/>
-      <c r="AV33" s="31"/>
-      <c r="AW33" s="31"/>
-      <c r="AX33" s="28"/>
-      <c r="AY33" s="28"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="50"/>
+      <c r="AI33" s="50"/>
+      <c r="AJ33" s="50"/>
+      <c r="AK33" s="50"/>
+      <c r="AL33" s="50"/>
+      <c r="AM33" s="50"/>
+      <c r="AN33" s="50"/>
+      <c r="AO33" s="50"/>
+      <c r="AP33" s="50"/>
+      <c r="AQ33" s="50"/>
+      <c r="AR33" s="50"/>
+      <c r="AS33" s="50"/>
+      <c r="AT33" s="50"/>
+      <c r="AU33" s="50"/>
+      <c r="AV33" s="50"/>
+      <c r="AW33" s="50"/>
+      <c r="AX33" s="50"/>
+      <c r="AY33" s="51"/>
       <c r="AZ33" s="28"/>
       <c r="BA33" s="28"/>
       <c r="BB33" s="28"/>
@@ -5340,58 +5180,50 @@
     </row>
     <row r="34" spans="1:59">
       <c r="A34" s="27"/>
-      <c r="B34" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
       <c r="P34" s="56"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
-      <c r="AG34" s="48"/>
-      <c r="AH34" s="48"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="48"/>
-      <c r="AK34" s="48"/>
-      <c r="AL34" s="48"/>
-      <c r="AM34" s="48"/>
-      <c r="AN34" s="48"/>
-      <c r="AO34" s="48"/>
-      <c r="AP34" s="48"/>
-      <c r="AQ34" s="48"/>
-      <c r="AR34" s="48"/>
-      <c r="AS34" s="49"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="31"/>
       <c r="AT34" s="31"/>
       <c r="AU34" s="31"/>
       <c r="AV34" s="31"/>
       <c r="AW34" s="31"/>
-      <c r="AX34" s="28"/>
-      <c r="AY34" s="28"/>
+      <c r="AX34" s="31"/>
+      <c r="AY34" s="31"/>
       <c r="AZ34" s="28"/>
       <c r="BA34" s="28"/>
       <c r="BB34" s="28"/>
@@ -5403,56 +5235,52 @@
     </row>
     <row r="35" spans="1:59">
       <c r="A35" s="27"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
       <c r="P35" s="56"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="48"/>
-      <c r="AD35" s="48"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="48"/>
-      <c r="AG35" s="48"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="48"/>
-      <c r="AK35" s="48"/>
-      <c r="AL35" s="48"/>
-      <c r="AM35" s="48"/>
-      <c r="AN35" s="48"/>
-      <c r="AO35" s="48"/>
-      <c r="AP35" s="48"/>
-      <c r="AQ35" s="48"/>
-      <c r="AR35" s="48"/>
-      <c r="AS35" s="49"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="82"/>
+      <c r="AF35" s="82"/>
+      <c r="AG35" s="82"/>
+      <c r="AH35" s="82"/>
+      <c r="AI35" s="82"/>
+      <c r="AJ35" s="82"/>
+      <c r="AK35" s="83"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
+      <c r="AQ35" s="31"/>
+      <c r="AR35" s="31"/>
+      <c r="AS35" s="31"/>
       <c r="AT35" s="31"/>
       <c r="AU35" s="31"/>
       <c r="AV35" s="31"/>
       <c r="AW35" s="31"/>
-      <c r="AX35" s="28"/>
-      <c r="AY35" s="28"/>
+      <c r="AX35" s="31"/>
+      <c r="AY35" s="31"/>
       <c r="AZ35" s="28"/>
       <c r="BA35" s="28"/>
       <c r="BB35" s="28"/>
@@ -5464,56 +5292,50 @@
     </row>
     <row r="36" spans="1:59">
       <c r="A36" s="27"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
       <c r="P36" s="56"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="48"/>
-      <c r="AD36" s="48"/>
-      <c r="AE36" s="48"/>
-      <c r="AF36" s="48"/>
-      <c r="AG36" s="48"/>
-      <c r="AH36" s="48"/>
-      <c r="AI36" s="48"/>
-      <c r="AJ36" s="48"/>
-      <c r="AK36" s="48"/>
-      <c r="AL36" s="48"/>
-      <c r="AM36" s="48"/>
-      <c r="AN36" s="48"/>
-      <c r="AO36" s="48"/>
-      <c r="AP36" s="48"/>
-      <c r="AQ36" s="48"/>
-      <c r="AR36" s="48"/>
-      <c r="AS36" s="49"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
+      <c r="AO36" s="31"/>
+      <c r="AP36" s="31"/>
+      <c r="AQ36" s="31"/>
+      <c r="AR36" s="31"/>
+      <c r="AS36" s="31"/>
       <c r="AT36" s="31"/>
       <c r="AU36" s="31"/>
       <c r="AV36" s="31"/>
       <c r="AW36" s="31"/>
-      <c r="AX36" s="28"/>
-      <c r="AY36" s="28"/>
+      <c r="AX36" s="31"/>
+      <c r="AY36" s="31"/>
       <c r="AZ36" s="28"/>
       <c r="BA36" s="28"/>
       <c r="BB36" s="28"/>
@@ -5525,56 +5347,54 @@
     </row>
     <row r="37" spans="1:59">
       <c r="A37" s="27"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
       <c r="P37" s="56"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="86"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="50"/>
-      <c r="AE37" s="50"/>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="50"/>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="50"/>
-      <c r="AL37" s="50"/>
-      <c r="AM37" s="50"/>
-      <c r="AN37" s="50"/>
-      <c r="AO37" s="50"/>
-      <c r="AP37" s="50"/>
-      <c r="AQ37" s="50"/>
-      <c r="AR37" s="50"/>
-      <c r="AS37" s="51"/>
-      <c r="AT37" s="31"/>
-      <c r="AU37" s="31"/>
-      <c r="AV37" s="31"/>
-      <c r="AW37" s="31"/>
-      <c r="AX37" s="28"/>
-      <c r="AY37" s="28"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="46"/>
+      <c r="AE37" s="46"/>
+      <c r="AF37" s="46"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO37" s="46"/>
+      <c r="AP37" s="46"/>
+      <c r="AQ37" s="46"/>
+      <c r="AR37" s="46"/>
+      <c r="AS37" s="46"/>
+      <c r="AT37" s="46"/>
+      <c r="AU37" s="46"/>
+      <c r="AV37" s="46"/>
+      <c r="AW37" s="46"/>
+      <c r="AX37" s="46"/>
+      <c r="AY37" s="47"/>
       <c r="AZ37" s="28"/>
       <c r="BA37" s="28"/>
       <c r="BB37" s="28"/>
@@ -5586,56 +5406,50 @@
     </row>
     <row r="38" spans="1:59">
       <c r="A38" s="27"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="54"/>
       <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
+      <c r="Y38" s="75"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
+      <c r="AH38" s="50"/>
+      <c r="AI38" s="50"/>
+      <c r="AJ38" s="50"/>
+      <c r="AK38" s="51"/>
       <c r="AL38" s="31"/>
       <c r="AM38" s="31"/>
-      <c r="AN38" s="31"/>
-      <c r="AO38" s="31"/>
-      <c r="AP38" s="31"/>
-      <c r="AQ38" s="31"/>
-      <c r="AR38" s="31"/>
-      <c r="AS38" s="31"/>
-      <c r="AT38" s="31"/>
-      <c r="AU38" s="31"/>
-      <c r="AV38" s="31"/>
-      <c r="AW38" s="31"/>
-      <c r="AX38" s="28"/>
-      <c r="AY38" s="28"/>
+      <c r="AN38" s="75"/>
+      <c r="AO38" s="50"/>
+      <c r="AP38" s="50"/>
+      <c r="AQ38" s="50"/>
+      <c r="AR38" s="50"/>
+      <c r="AS38" s="50"/>
+      <c r="AT38" s="50"/>
+      <c r="AU38" s="50"/>
+      <c r="AV38" s="50"/>
+      <c r="AW38" s="50"/>
+      <c r="AX38" s="50"/>
+      <c r="AY38" s="51"/>
       <c r="AZ38" s="28"/>
       <c r="BA38" s="28"/>
       <c r="BB38" s="28"/>
@@ -5647,56 +5461,48 @@
     </row>
     <row r="39" spans="1:59">
       <c r="A39" s="27"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="T39" s="93"/>
-      <c r="U39" s="93"/>
-      <c r="V39" s="93"/>
-      <c r="W39" s="93"/>
-      <c r="X39" s="93"/>
-      <c r="Y39" s="93"/>
-      <c r="Z39" s="93"/>
-      <c r="AA39" s="93"/>
-      <c r="AB39" s="93"/>
-      <c r="AC39" s="93"/>
-      <c r="AD39" s="93"/>
-      <c r="AE39" s="94"/>
-      <c r="AF39" s="31"/>
-      <c r="AG39" s="31"/>
-      <c r="AH39" s="31"/>
-      <c r="AI39" s="31"/>
-      <c r="AJ39" s="31"/>
-      <c r="AK39" s="31"/>
-      <c r="AL39" s="31"/>
-      <c r="AM39" s="31"/>
-      <c r="AN39" s="31"/>
-      <c r="AO39" s="31"/>
-      <c r="AP39" s="31"/>
-      <c r="AQ39" s="31"/>
-      <c r="AR39" s="31"/>
-      <c r="AS39" s="31"/>
-      <c r="AT39" s="31"/>
-      <c r="AU39" s="31"/>
-      <c r="AV39" s="31"/>
-      <c r="AW39" s="31"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="28"/>
+      <c r="AK39" s="28"/>
+      <c r="AL39" s="28"/>
+      <c r="AM39" s="28"/>
+      <c r="AN39" s="28"/>
+      <c r="AO39" s="28"/>
+      <c r="AP39" s="28"/>
+      <c r="AQ39" s="28"/>
+      <c r="AR39" s="28"/>
+      <c r="AS39" s="28"/>
+      <c r="AT39" s="28"/>
+      <c r="AU39" s="28"/>
+      <c r="AV39" s="28"/>
+      <c r="AW39" s="28"/>
       <c r="AX39" s="28"/>
       <c r="AY39" s="28"/>
       <c r="AZ39" s="28"/>
@@ -5710,54 +5516,48 @@
     </row>
     <row r="40" spans="1:59">
       <c r="A40" s="27"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="31"/>
-      <c r="AG40" s="31"/>
-      <c r="AH40" s="31"/>
-      <c r="AI40" s="31"/>
-      <c r="AJ40" s="31"/>
-      <c r="AK40" s="31"/>
-      <c r="AL40" s="31"/>
-      <c r="AM40" s="31"/>
-      <c r="AN40" s="31"/>
-      <c r="AO40" s="31"/>
-      <c r="AP40" s="31"/>
-      <c r="AQ40" s="31"/>
-      <c r="AR40" s="31"/>
-      <c r="AS40" s="31"/>
-      <c r="AT40" s="31"/>
-      <c r="AU40" s="31"/>
-      <c r="AV40" s="31"/>
-      <c r="AW40" s="31"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="28"/>
+      <c r="AL40" s="28"/>
+      <c r="AM40" s="28"/>
+      <c r="AN40" s="28"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="28"/>
+      <c r="AQ40" s="28"/>
+      <c r="AR40" s="28"/>
+      <c r="AS40" s="28"/>
+      <c r="AT40" s="28"/>
+      <c r="AU40" s="28"/>
+      <c r="AV40" s="28"/>
+      <c r="AW40" s="28"/>
       <c r="AX40" s="28"/>
       <c r="AY40" s="28"/>
       <c r="AZ40" s="28"/>
@@ -5771,58 +5571,48 @@
     </row>
     <row r="41" spans="1:59">
       <c r="A41" s="27"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="46"/>
-      <c r="AA41" s="46"/>
-      <c r="AB41" s="46"/>
-      <c r="AC41" s="46"/>
-      <c r="AD41" s="46"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="31"/>
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI41" s="46"/>
-      <c r="AJ41" s="46"/>
-      <c r="AK41" s="46"/>
-      <c r="AL41" s="46"/>
-      <c r="AM41" s="46"/>
-      <c r="AN41" s="46"/>
-      <c r="AO41" s="46"/>
-      <c r="AP41" s="46"/>
-      <c r="AQ41" s="46"/>
-      <c r="AR41" s="46"/>
-      <c r="AS41" s="47"/>
-      <c r="AT41" s="31"/>
-      <c r="AU41" s="31"/>
-      <c r="AV41" s="31"/>
-      <c r="AW41" s="31"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="28"/>
+      <c r="AJ41" s="28"/>
+      <c r="AK41" s="28"/>
+      <c r="AL41" s="28"/>
+      <c r="AM41" s="28"/>
+      <c r="AN41" s="28"/>
+      <c r="AO41" s="28"/>
+      <c r="AP41" s="28"/>
+      <c r="AQ41" s="28"/>
+      <c r="AR41" s="28"/>
+      <c r="AS41" s="28"/>
+      <c r="AT41" s="28"/>
+      <c r="AU41" s="28"/>
+      <c r="AV41" s="28"/>
+      <c r="AW41" s="28"/>
       <c r="AX41" s="28"/>
       <c r="AY41" s="28"/>
       <c r="AZ41" s="28"/>
@@ -5836,54 +5626,48 @@
     </row>
     <row r="42" spans="1:59">
       <c r="A42" s="27"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="86"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="51"/>
-      <c r="AF42" s="31"/>
-      <c r="AG42" s="31"/>
-      <c r="AH42" s="86"/>
-      <c r="AI42" s="50"/>
-      <c r="AJ42" s="50"/>
-      <c r="AK42" s="50"/>
-      <c r="AL42" s="50"/>
-      <c r="AM42" s="50"/>
-      <c r="AN42" s="50"/>
-      <c r="AO42" s="50"/>
-      <c r="AP42" s="50"/>
-      <c r="AQ42" s="50"/>
-      <c r="AR42" s="50"/>
-      <c r="AS42" s="51"/>
-      <c r="AT42" s="31"/>
-      <c r="AU42" s="31"/>
-      <c r="AV42" s="31"/>
-      <c r="AW42" s="31"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="28"/>
+      <c r="AK42" s="28"/>
+      <c r="AL42" s="28"/>
+      <c r="AM42" s="28"/>
+      <c r="AN42" s="28"/>
+      <c r="AO42" s="28"/>
+      <c r="AP42" s="28"/>
+      <c r="AQ42" s="28"/>
+      <c r="AR42" s="28"/>
+      <c r="AS42" s="28"/>
+      <c r="AT42" s="28"/>
+      <c r="AU42" s="28"/>
+      <c r="AV42" s="28"/>
+      <c r="AW42" s="28"/>
       <c r="AX42" s="28"/>
       <c r="AY42" s="28"/>
       <c r="AZ42" s="28"/>
@@ -5897,12 +5681,6 @@
     </row>
     <row r="43" spans="1:59">
       <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
@@ -5941,11 +5719,11 @@
       <c r="AQ43" s="28"/>
       <c r="AR43" s="28"/>
       <c r="AS43" s="28"/>
-      <c r="AT43" s="31"/>
-      <c r="AU43" s="31"/>
-      <c r="AV43" s="31"/>
-      <c r="AW43" s="31"/>
-      <c r="AX43" s="31"/>
+      <c r="AT43" s="28"/>
+      <c r="AU43" s="28"/>
+      <c r="AV43" s="28"/>
+      <c r="AW43" s="28"/>
+      <c r="AX43" s="28"/>
       <c r="AY43" s="28"/>
       <c r="AZ43" s="28"/>
       <c r="BA43" s="28"/>
@@ -5958,12 +5736,6 @@
     </row>
     <row r="44" spans="1:59">
       <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
@@ -6002,11 +5774,11 @@
       <c r="AQ44" s="28"/>
       <c r="AR44" s="28"/>
       <c r="AS44" s="28"/>
-      <c r="AT44" s="31"/>
-      <c r="AU44" s="31"/>
-      <c r="AV44" s="31"/>
-      <c r="AW44" s="31"/>
-      <c r="AX44" s="31"/>
+      <c r="AT44" s="28"/>
+      <c r="AU44" s="28"/>
+      <c r="AV44" s="28"/>
+      <c r="AW44" s="28"/>
+      <c r="AX44" s="28"/>
       <c r="AY44" s="28"/>
       <c r="AZ44" s="28"/>
       <c r="BA44" s="28"/>
@@ -6019,12 +5791,6 @@
     </row>
     <row r="45" spans="1:59">
       <c r="A45" s="27"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
@@ -6063,11 +5829,11 @@
       <c r="AQ45" s="28"/>
       <c r="AR45" s="28"/>
       <c r="AS45" s="28"/>
-      <c r="AT45" s="31"/>
-      <c r="AU45" s="31"/>
-      <c r="AV45" s="31"/>
-      <c r="AW45" s="31"/>
-      <c r="AX45" s="31"/>
+      <c r="AT45" s="28"/>
+      <c r="AU45" s="28"/>
+      <c r="AV45" s="28"/>
+      <c r="AW45" s="28"/>
+      <c r="AX45" s="28"/>
       <c r="AY45" s="28"/>
       <c r="AZ45" s="28"/>
       <c r="BA45" s="28"/>
@@ -6080,12 +5846,6 @@
     </row>
     <row r="46" spans="1:59">
       <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
@@ -6124,11 +5884,11 @@
       <c r="AQ46" s="28"/>
       <c r="AR46" s="28"/>
       <c r="AS46" s="28"/>
-      <c r="AT46" s="31"/>
-      <c r="AU46" s="31"/>
-      <c r="AV46" s="31"/>
-      <c r="AW46" s="31"/>
-      <c r="AX46" s="31"/>
+      <c r="AT46" s="28"/>
+      <c r="AU46" s="28"/>
+      <c r="AV46" s="28"/>
+      <c r="AW46" s="28"/>
+      <c r="AX46" s="28"/>
       <c r="AY46" s="28"/>
       <c r="AZ46" s="28"/>
       <c r="BA46" s="28"/>
@@ -6141,12 +5901,6 @@
     </row>
     <row r="47" spans="1:59">
       <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
@@ -6185,11 +5939,11 @@
       <c r="AQ47" s="28"/>
       <c r="AR47" s="28"/>
       <c r="AS47" s="28"/>
-      <c r="AT47" s="31"/>
-      <c r="AU47" s="31"/>
-      <c r="AV47" s="31"/>
-      <c r="AW47" s="31"/>
-      <c r="AX47" s="31"/>
+      <c r="AT47" s="28"/>
+      <c r="AU47" s="28"/>
+      <c r="AV47" s="28"/>
+      <c r="AW47" s="28"/>
+      <c r="AX47" s="28"/>
       <c r="AY47" s="28"/>
       <c r="AZ47" s="28"/>
       <c r="BA47" s="28"/>
@@ -6202,12 +5956,6 @@
     </row>
     <row r="48" spans="1:59">
       <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
       <c r="J48" s="28"/>
@@ -6246,11 +5994,11 @@
       <c r="AQ48" s="28"/>
       <c r="AR48" s="28"/>
       <c r="AS48" s="28"/>
-      <c r="AT48" s="31"/>
-      <c r="AU48" s="31"/>
-      <c r="AV48" s="31"/>
-      <c r="AW48" s="31"/>
-      <c r="AX48" s="31"/>
+      <c r="AT48" s="28"/>
+      <c r="AU48" s="28"/>
+      <c r="AV48" s="28"/>
+      <c r="AW48" s="28"/>
+      <c r="AX48" s="28"/>
       <c r="AY48" s="28"/>
       <c r="AZ48" s="28"/>
       <c r="BA48" s="28"/>
@@ -6263,12 +6011,6 @@
     </row>
     <row r="49" spans="1:59">
       <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
       <c r="J49" s="28"/>
@@ -6307,11 +6049,11 @@
       <c r="AQ49" s="28"/>
       <c r="AR49" s="28"/>
       <c r="AS49" s="28"/>
-      <c r="AT49" s="31"/>
-      <c r="AU49" s="31"/>
-      <c r="AV49" s="31"/>
-      <c r="AW49" s="31"/>
-      <c r="AX49" s="31"/>
+      <c r="AT49" s="28"/>
+      <c r="AU49" s="28"/>
+      <c r="AV49" s="28"/>
+      <c r="AW49" s="28"/>
+      <c r="AX49" s="28"/>
       <c r="AY49" s="28"/>
       <c r="AZ49" s="28"/>
       <c r="BA49" s="28"/>
@@ -6324,12 +6066,6 @@
     </row>
     <row r="50" spans="1:59">
       <c r="A50" s="27"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
       <c r="J50" s="28"/>
@@ -6368,11 +6104,11 @@
       <c r="AQ50" s="28"/>
       <c r="AR50" s="28"/>
       <c r="AS50" s="28"/>
-      <c r="AT50" s="31"/>
-      <c r="AU50" s="31"/>
-      <c r="AV50" s="31"/>
-      <c r="AW50" s="31"/>
-      <c r="AX50" s="31"/>
+      <c r="AT50" s="28"/>
+      <c r="AU50" s="28"/>
+      <c r="AV50" s="28"/>
+      <c r="AW50" s="28"/>
+      <c r="AX50" s="28"/>
       <c r="AY50" s="28"/>
       <c r="AZ50" s="28"/>
       <c r="BA50" s="28"/>
@@ -6385,56 +6121,50 @@
     </row>
     <row r="51" spans="1:59">
       <c r="A51" s="27"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28"/>
-      <c r="AC51" s="28"/>
-      <c r="AD51" s="28"/>
-      <c r="AE51" s="28"/>
-      <c r="AF51" s="28"/>
-      <c r="AG51" s="28"/>
-      <c r="AH51" s="28"/>
-      <c r="AI51" s="28"/>
-      <c r="AJ51" s="28"/>
-      <c r="AK51" s="28"/>
-      <c r="AL51" s="28"/>
-      <c r="AM51" s="28"/>
-      <c r="AN51" s="28"/>
-      <c r="AO51" s="28"/>
-      <c r="AP51" s="28"/>
-      <c r="AQ51" s="28"/>
-      <c r="AR51" s="28"/>
-      <c r="AS51" s="28"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="45"/>
+      <c r="Z51" s="45"/>
+      <c r="AA51" s="45"/>
+      <c r="AB51" s="45"/>
+      <c r="AC51" s="45"/>
+      <c r="AD51" s="45"/>
+      <c r="AE51" s="45"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="31"/>
+      <c r="AH51" s="31"/>
+      <c r="AI51" s="31"/>
+      <c r="AJ51" s="31"/>
+      <c r="AK51" s="31"/>
+      <c r="AL51" s="31"/>
+      <c r="AM51" s="31"/>
+      <c r="AN51" s="31"/>
+      <c r="AO51" s="31"/>
+      <c r="AP51" s="31"/>
+      <c r="AQ51" s="31"/>
+      <c r="AR51" s="31"/>
+      <c r="AS51" s="31"/>
       <c r="AT51" s="31"/>
       <c r="AU51" s="31"/>
       <c r="AV51" s="31"/>
       <c r="AW51" s="31"/>
       <c r="AX51" s="31"/>
-      <c r="AY51" s="28"/>
+      <c r="AY51" s="31"/>
       <c r="AZ51" s="28"/>
       <c r="BA51" s="28"/>
       <c r="BB51" s="28"/>
@@ -6447,54 +6177,52 @@
     <row r="52" spans="1:59">
       <c r="A52" s="27"/>
       <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="28"/>
-      <c r="AD52" s="28"/>
-      <c r="AE52" s="28"/>
-      <c r="AF52" s="28"/>
-      <c r="AG52" s="28"/>
-      <c r="AH52" s="28"/>
-      <c r="AI52" s="28"/>
-      <c r="AJ52" s="28"/>
-      <c r="AK52" s="28"/>
-      <c r="AL52" s="28"/>
-      <c r="AM52" s="28"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
+      <c r="X52" s="45"/>
+      <c r="Y52" s="45"/>
+      <c r="Z52" s="45"/>
+      <c r="AA52" s="45"/>
+      <c r="AB52" s="45"/>
+      <c r="AC52" s="45"/>
+      <c r="AD52" s="45"/>
+      <c r="AE52" s="45"/>
+      <c r="AF52" s="45"/>
+      <c r="AG52" s="45"/>
+      <c r="AH52" s="45"/>
+      <c r="AI52" s="45"/>
+      <c r="AJ52" s="45"/>
+      <c r="AK52" s="45"/>
+      <c r="AL52" s="45"/>
+      <c r="AM52" s="45"/>
       <c r="AN52" s="28"/>
       <c r="AO52" s="28"/>
       <c r="AP52" s="28"/>
       <c r="AQ52" s="28"/>
       <c r="AR52" s="28"/>
       <c r="AS52" s="28"/>
-      <c r="AT52" s="31"/>
-      <c r="AU52" s="31"/>
-      <c r="AV52" s="31"/>
-      <c r="AW52" s="31"/>
-      <c r="AX52" s="31"/>
+      <c r="AT52" s="28"/>
+      <c r="AU52" s="28"/>
+      <c r="AV52" s="28"/>
+      <c r="AW52" s="28"/>
+      <c r="AX52" s="28"/>
       <c r="AY52" s="28"/>
       <c r="AZ52" s="28"/>
       <c r="BA52" s="28"/>
@@ -6508,8 +6236,8 @@
     <row r="53" spans="1:59">
       <c r="A53" s="27"/>
       <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
@@ -6551,11 +6279,11 @@
       <c r="AQ53" s="28"/>
       <c r="AR53" s="28"/>
       <c r="AS53" s="28"/>
-      <c r="AT53" s="31"/>
-      <c r="AU53" s="31"/>
-      <c r="AV53" s="31"/>
-      <c r="AW53" s="31"/>
-      <c r="AX53" s="31"/>
+      <c r="AT53" s="28"/>
+      <c r="AU53" s="28"/>
+      <c r="AV53" s="28"/>
+      <c r="AW53" s="28"/>
+      <c r="AX53" s="28"/>
       <c r="AY53" s="28"/>
       <c r="AZ53" s="28"/>
       <c r="BA53" s="28"/>
@@ -6569,8 +6297,8 @@
     <row r="54" spans="1:59">
       <c r="A54" s="27"/>
       <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
@@ -6612,11 +6340,11 @@
       <c r="AQ54" s="28"/>
       <c r="AR54" s="28"/>
       <c r="AS54" s="28"/>
-      <c r="AT54" s="31"/>
-      <c r="AU54" s="31"/>
-      <c r="AV54" s="31"/>
-      <c r="AW54" s="31"/>
-      <c r="AX54" s="31"/>
+      <c r="AT54" s="28"/>
+      <c r="AU54" s="28"/>
+      <c r="AV54" s="28"/>
+      <c r="AW54" s="28"/>
+      <c r="AX54" s="28"/>
       <c r="AY54" s="28"/>
       <c r="AZ54" s="28"/>
       <c r="BA54" s="28"/>
@@ -6629,55 +6357,55 @@
     </row>
     <row r="55" spans="1:59">
       <c r="A55" s="27"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="45"/>
-      <c r="W55" s="45"/>
-      <c r="X55" s="45"/>
-      <c r="Y55" s="45"/>
-      <c r="Z55" s="31"/>
-      <c r="AA55" s="31"/>
-      <c r="AB55" s="31"/>
-      <c r="AC55" s="31"/>
-      <c r="AD55" s="31"/>
-      <c r="AE55" s="31"/>
-      <c r="AF55" s="31"/>
-      <c r="AG55" s="31"/>
-      <c r="AH55" s="31"/>
-      <c r="AI55" s="31"/>
-      <c r="AJ55" s="31"/>
-      <c r="AK55" s="31"/>
-      <c r="AL55" s="31"/>
-      <c r="AM55" s="31"/>
-      <c r="AN55" s="31"/>
-      <c r="AO55" s="31"/>
-      <c r="AP55" s="31"/>
-      <c r="AQ55" s="31"/>
-      <c r="AR55" s="31"/>
-      <c r="AS55" s="31"/>
-      <c r="AT55" s="31"/>
-      <c r="AU55" s="31"/>
-      <c r="AV55" s="31"/>
-      <c r="AW55" s="31"/>
-      <c r="AX55" s="31"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
+      <c r="AD55" s="28"/>
+      <c r="AE55" s="28"/>
+      <c r="AF55" s="28"/>
+      <c r="AG55" s="28"/>
+      <c r="AH55" s="28"/>
+      <c r="AI55" s="28"/>
+      <c r="AJ55" s="28"/>
+      <c r="AK55" s="28"/>
+      <c r="AL55" s="28"/>
+      <c r="AM55" s="28"/>
+      <c r="AN55" s="28"/>
+      <c r="AO55" s="28"/>
+      <c r="AP55" s="28"/>
+      <c r="AQ55" s="28"/>
+      <c r="AR55" s="28"/>
+      <c r="AS55" s="28"/>
+      <c r="AT55" s="28"/>
+      <c r="AU55" s="28"/>
+      <c r="AV55" s="28"/>
+      <c r="AW55" s="28"/>
+      <c r="AX55" s="28"/>
       <c r="AY55" s="28"/>
       <c r="AZ55" s="28"/>
       <c r="BA55" s="28"/>
@@ -6691,41 +6419,43 @@
     <row r="56" spans="1:59">
       <c r="A56" s="27"/>
       <c r="B56" s="28"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
-      <c r="P56" s="45"/>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="45"/>
-      <c r="S56" s="45"/>
-      <c r="T56" s="45"/>
-      <c r="U56" s="45"/>
-      <c r="V56" s="45"/>
-      <c r="W56" s="45"/>
-      <c r="X56" s="45"/>
-      <c r="Y56" s="45"/>
-      <c r="Z56" s="45"/>
-      <c r="AA56" s="45"/>
-      <c r="AB56" s="45"/>
-      <c r="AC56" s="45"/>
-      <c r="AD56" s="45"/>
-      <c r="AE56" s="45"/>
-      <c r="AF56" s="45"/>
-      <c r="AG56" s="45"/>
-      <c r="AH56" s="45"/>
-      <c r="AI56" s="45"/>
-      <c r="AJ56" s="45"/>
-      <c r="AK56" s="45"/>
-      <c r="AL56" s="45"/>
-      <c r="AM56" s="45"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="28"/>
+      <c r="AF56" s="28"/>
+      <c r="AG56" s="28"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="28"/>
+      <c r="AJ56" s="28"/>
+      <c r="AK56" s="28"/>
+      <c r="AL56" s="28"/>
+      <c r="AM56" s="28"/>
       <c r="AN56" s="28"/>
       <c r="AO56" s="28"/>
       <c r="AP56" s="28"/>
@@ -6750,8 +6480,8 @@
     <row r="57" spans="1:59">
       <c r="A57" s="27"/>
       <c r="B57" s="28"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
       <c r="G57" s="28"/>
@@ -6809,309 +6539,65 @@
       <c r="BG57" s="29"/>
     </row>
     <row r="58" spans="1:59">
-      <c r="A58" s="27"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="28"/>
-      <c r="AC58" s="28"/>
-      <c r="AD58" s="28"/>
-      <c r="AE58" s="28"/>
-      <c r="AF58" s="28"/>
-      <c r="AG58" s="28"/>
-      <c r="AH58" s="28"/>
-      <c r="AI58" s="28"/>
-      <c r="AJ58" s="28"/>
-      <c r="AK58" s="28"/>
-      <c r="AL58" s="28"/>
-      <c r="AM58" s="28"/>
-      <c r="AN58" s="28"/>
-      <c r="AO58" s="28"/>
-      <c r="AP58" s="28"/>
-      <c r="AQ58" s="28"/>
-      <c r="AR58" s="28"/>
-      <c r="AS58" s="28"/>
-      <c r="AT58" s="28"/>
-      <c r="AU58" s="28"/>
-      <c r="AV58" s="28"/>
-      <c r="AW58" s="28"/>
-      <c r="AX58" s="28"/>
-      <c r="AY58" s="28"/>
-      <c r="AZ58" s="28"/>
-      <c r="BA58" s="28"/>
-      <c r="BB58" s="28"/>
-      <c r="BC58" s="28"/>
-      <c r="BD58" s="28"/>
-      <c r="BE58" s="28"/>
-      <c r="BF58" s="28"/>
-      <c r="BG58" s="29"/>
-    </row>
-    <row r="59" spans="1:59">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28"/>
-      <c r="AE59" s="28"/>
-      <c r="AF59" s="28"/>
-      <c r="AG59" s="28"/>
-      <c r="AH59" s="28"/>
-      <c r="AI59" s="28"/>
-      <c r="AJ59" s="28"/>
-      <c r="AK59" s="28"/>
-      <c r="AL59" s="28"/>
-      <c r="AM59" s="28"/>
-      <c r="AN59" s="28"/>
-      <c r="AO59" s="28"/>
-      <c r="AP59" s="28"/>
-      <c r="AQ59" s="28"/>
-      <c r="AR59" s="28"/>
-      <c r="AS59" s="28"/>
-      <c r="AT59" s="28"/>
-      <c r="AU59" s="28"/>
-      <c r="AV59" s="28"/>
-      <c r="AW59" s="28"/>
-      <c r="AX59" s="28"/>
-      <c r="AY59" s="28"/>
-      <c r="AZ59" s="28"/>
-      <c r="BA59" s="28"/>
-      <c r="BB59" s="28"/>
-      <c r="BC59" s="28"/>
-      <c r="BD59" s="28"/>
-      <c r="BE59" s="28"/>
-      <c r="BF59" s="28"/>
-      <c r="BG59" s="29"/>
-    </row>
-    <row r="60" spans="1:59">
-      <c r="A60" s="27"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="28"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="28"/>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="28"/>
-      <c r="AE60" s="28"/>
-      <c r="AF60" s="28"/>
-      <c r="AG60" s="28"/>
-      <c r="AH60" s="28"/>
-      <c r="AI60" s="28"/>
-      <c r="AJ60" s="28"/>
-      <c r="AK60" s="28"/>
-      <c r="AL60" s="28"/>
-      <c r="AM60" s="28"/>
-      <c r="AN60" s="28"/>
-      <c r="AO60" s="28"/>
-      <c r="AP60" s="28"/>
-      <c r="AQ60" s="28"/>
-      <c r="AR60" s="28"/>
-      <c r="AS60" s="28"/>
-      <c r="AT60" s="28"/>
-      <c r="AU60" s="28"/>
-      <c r="AV60" s="28"/>
-      <c r="AW60" s="28"/>
-      <c r="AX60" s="28"/>
-      <c r="AY60" s="28"/>
-      <c r="AZ60" s="28"/>
-      <c r="BA60" s="28"/>
-      <c r="BB60" s="28"/>
-      <c r="BC60" s="28"/>
-      <c r="BD60" s="28"/>
-      <c r="BE60" s="28"/>
-      <c r="BF60" s="28"/>
-      <c r="BG60" s="29"/>
-    </row>
-    <row r="61" spans="1:59">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="28"/>
-      <c r="S61" s="28"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="28"/>
-      <c r="V61" s="28"/>
-      <c r="W61" s="28"/>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="28"/>
-      <c r="AA61" s="28"/>
-      <c r="AB61" s="28"/>
-      <c r="AC61" s="28"/>
-      <c r="AD61" s="28"/>
-      <c r="AE61" s="28"/>
-      <c r="AF61" s="28"/>
-      <c r="AG61" s="28"/>
-      <c r="AH61" s="28"/>
-      <c r="AI61" s="28"/>
-      <c r="AJ61" s="28"/>
-      <c r="AK61" s="28"/>
-      <c r="AL61" s="28"/>
-      <c r="AM61" s="28"/>
-      <c r="AN61" s="28"/>
-      <c r="AO61" s="28"/>
-      <c r="AP61" s="28"/>
-      <c r="AQ61" s="28"/>
-      <c r="AR61" s="28"/>
-      <c r="AS61" s="28"/>
-      <c r="AT61" s="28"/>
-      <c r="AU61" s="28"/>
-      <c r="AV61" s="28"/>
-      <c r="AW61" s="28"/>
-      <c r="AX61" s="28"/>
-      <c r="AY61" s="28"/>
-      <c r="AZ61" s="28"/>
-      <c r="BA61" s="28"/>
-      <c r="BB61" s="28"/>
-      <c r="BC61" s="28"/>
-      <c r="BD61" s="28"/>
-      <c r="BE61" s="28"/>
-      <c r="BF61" s="28"/>
-      <c r="BG61" s="29"/>
-    </row>
-    <row r="62" spans="1:59">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="33"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="33"/>
-      <c r="W62" s="33"/>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="33"/>
-      <c r="Z62" s="33"/>
-      <c r="AA62" s="33"/>
-      <c r="AB62" s="33"/>
-      <c r="AC62" s="33"/>
-      <c r="AD62" s="33"/>
-      <c r="AE62" s="33"/>
-      <c r="AF62" s="33"/>
-      <c r="AG62" s="33"/>
-      <c r="AH62" s="33"/>
-      <c r="AI62" s="33"/>
-      <c r="AJ62" s="33"/>
-      <c r="AK62" s="33"/>
-      <c r="AL62" s="33"/>
-      <c r="AM62" s="33"/>
-      <c r="AN62" s="33"/>
-      <c r="AO62" s="33"/>
-      <c r="AP62" s="33"/>
-      <c r="AQ62" s="33"/>
-      <c r="AR62" s="33"/>
-      <c r="AS62" s="33"/>
-      <c r="AT62" s="33"/>
-      <c r="AU62" s="33"/>
-      <c r="AV62" s="33"/>
-      <c r="AW62" s="33"/>
-      <c r="AX62" s="33"/>
-      <c r="AY62" s="33"/>
-      <c r="AZ62" s="33"/>
-      <c r="BA62" s="33"/>
-      <c r="BB62" s="33"/>
-      <c r="BC62" s="33"/>
-      <c r="BD62" s="33"/>
-      <c r="BE62" s="33"/>
-      <c r="BF62" s="33"/>
-      <c r="BG62" s="34"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="33"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="33"/>
+      <c r="AG58" s="33"/>
+      <c r="AH58" s="33"/>
+      <c r="AI58" s="33"/>
+      <c r="AJ58" s="33"/>
+      <c r="AK58" s="33"/>
+      <c r="AL58" s="33"/>
+      <c r="AM58" s="33"/>
+      <c r="AN58" s="33"/>
+      <c r="AO58" s="33"/>
+      <c r="AP58" s="33"/>
+      <c r="AQ58" s="33"/>
+      <c r="AR58" s="33"/>
+      <c r="AS58" s="33"/>
+      <c r="AT58" s="33"/>
+      <c r="AU58" s="33"/>
+      <c r="AV58" s="33"/>
+      <c r="AW58" s="33"/>
+      <c r="AX58" s="33"/>
+      <c r="AY58" s="33"/>
+      <c r="AZ58" s="33"/>
+      <c r="BA58" s="33"/>
+      <c r="BB58" s="33"/>
+      <c r="BC58" s="33"/>
+      <c r="BD58" s="33"/>
+      <c r="BE58" s="33"/>
+      <c r="BF58" s="33"/>
+      <c r="BG58" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7134,7 +6620,7 @@
       <selection activeCell="C43" sqref="C43"/>
       <selection pane="topRight" activeCell="C43" sqref="C43"/>
       <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7183,17 +6669,17 @@
         <f t="shared" ref="A9:A60" si="0">ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="35" t="s">
+      <c r="B9" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>49</v>
+      <c r="E9" s="92" t="s">
+        <v>107</v>
       </c>
       <c r="F9" s="20"/>
     </row>
@@ -7202,17 +6688,17 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>50</v>
+      <c r="E10" s="92" t="s">
+        <v>109</v>
       </c>
       <c r="F10" s="20"/>
     </row>
@@ -7222,16 +6708,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F11" s="20"/>
     </row>
@@ -7241,7 +6727,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>31</v>
@@ -7250,7 +6736,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="F12" s="20"/>
     </row>
@@ -7260,7 +6746,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>31</v>
@@ -7269,17 +6755,17 @@
         <v>30</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" ht="94.5">
+    <row r="14" spans="1:6">
       <c r="A14" s="20">
         <f>ROW()-8</f>
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>31</v>
@@ -7288,7 +6774,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="F14" s="20"/>
     </row>
@@ -7297,21 +6783,37 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="94.5">
       <c r="A16" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="21"/>
+      <c r="B16" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6">
@@ -7809,14 +7311,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17180161-7331-4DBF-8351-1CA79027618E}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C43" sqref="C43"/>
       <selection pane="topRight" activeCell="C43" sqref="C43"/>
       <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7938,20 +7440,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="20">
-        <f t="shared" ref="A10:A40" si="0">ROW()-8</f>
+        <f t="shared" ref="A10:A41" si="0">ROW()-8</f>
         <v>2</v>
       </c>
       <c r="B10" s="21"/>
@@ -7969,51 +7471,55 @@
         <v>33</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="27">
       <c r="A12" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="C12" s="92" t="s">
+        <v>110</v>
+      </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="92" t="s">
+        <v>111</v>
+      </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:10" ht="27">
+    <row r="13" spans="1:10">
       <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="27">
+      <c r="A14" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="20">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:10">
@@ -8022,13 +7528,9 @@
         <v>7</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="C15" s="21"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="21" t="s">
-        <v>39</v>
-      </c>
+      <c r="E15" s="21"/>
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:10">
@@ -8037,38 +7539,40 @@
         <v>8</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="C16" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="1:6" ht="27">
+      <c r="E16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" ht="27">
+      <c r="A18" s="20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="20">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>99</v>
+      </c>
       <c r="E18" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F18" s="20"/>
     </row>
@@ -8080,35 +7584,37 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="1:6" ht="27">
+    <row r="20" spans="1:6">
       <c r="A20" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>92</v>
-      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="27">
       <c r="A21" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="C21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6">
@@ -8116,16 +7622,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="E22" s="21"/>
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6">
@@ -8133,10 +7633,16 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6">
@@ -8144,16 +7650,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="21"/>
-      <c r="E24" s="21" t="s">
-        <v>61</v>
-      </c>
+      <c r="E24" s="21"/>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6">
@@ -8161,11 +7661,15 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="B25" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F25" s="20"/>
     </row>
@@ -8175,12 +7679,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F26" s="20"/>
     </row>
@@ -8191,11 +7693,11 @@
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="21" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F27" s="20"/>
     </row>
@@ -8206,11 +7708,11 @@
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="21" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F28" s="20"/>
     </row>
@@ -8221,11 +7723,11 @@
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F29" s="20"/>
     </row>
@@ -8235,9 +7737,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
+      <c r="C30" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6">
@@ -8245,16 +7751,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>53</v>
-      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="21"/>
-      <c r="E31" s="21" t="s">
-        <v>54</v>
-      </c>
+      <c r="E31" s="21"/>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6">
@@ -8262,17 +7762,17 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="92" t="s">
+        <v>112</v>
+      </c>
       <c r="C32" s="21" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="95" t="s">
-        <v>102</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="20">
@@ -8280,14 +7780,14 @@
         <v>25</v>
       </c>
       <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
+      <c r="C33" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="95" t="s">
-        <v>102</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F33" s="84"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="20">
@@ -8295,16 +7795,12 @@
         <v>26</v>
       </c>
       <c r="B34" s="21"/>
-      <c r="C34" s="21" t="s">
-        <v>42</v>
-      </c>
+      <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="95" t="s">
-        <v>102</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F34" s="84"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="20">
@@ -8312,14 +7808,14 @@
         <v>27</v>
       </c>
       <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+      <c r="C35" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="95" t="s">
-        <v>102</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F35" s="84"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="20">
@@ -8327,16 +7823,12 @@
         <v>28</v>
       </c>
       <c r="B36" s="21"/>
-      <c r="C36" s="21" t="s">
-        <v>43</v>
-      </c>
+      <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="95" t="s">
-        <v>102</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F36" s="84"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="20">
@@ -8346,12 +7838,8 @@
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="95" t="s">
-        <v>102</v>
-      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="84"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="20">
@@ -8359,27 +7847,27 @@
         <v>30</v>
       </c>
       <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="84"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="20">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="91" t="s">
-        <v>93</v>
+      <c r="B39" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="F39" s="20"/>
     </row>
@@ -8389,40 +7877,38 @@
         <v>32</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
+      <c r="C40" s="67"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="91" t="s">
-        <v>94</v>
+      <c r="E40" s="80" t="s">
+        <v>91</v>
       </c>
       <c r="F40" s="20"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="20">
-        <f t="shared" ref="A41:A65" si="1">ROW()-8</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>96</v>
+      <c r="D41" s="21"/>
+      <c r="E41" s="80" t="s">
+        <v>92</v>
       </c>
       <c r="F41" s="20"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A42:A66" si="1">ROW()-8</f>
         <v>34</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="E42" s="21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F42" s="20"/>
     </row>
@@ -8432,12 +7918,12 @@
         <v>35</v>
       </c>
       <c r="B43" s="21"/>
-      <c r="C43" s="78" t="s">
-        <v>103</v>
+      <c r="C43" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F43" s="20"/>
     </row>
@@ -8447,9 +7933,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
+      <c r="C44" s="67" t="s">
+        <v>100</v>
+      </c>
       <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="E44" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="F44" s="20"/>
     </row>
     <row r="45" spans="1:6">
@@ -8682,6 +8172,17 @@
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
       <c r="F65" s="20"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="20">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8710,30 +8211,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="96"/>
+      <c r="A1" s="85"/>
       <c r="B1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A2" s="97"/>
+      <c r="A2" s="86"/>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="2">
